--- a/test_models/news.xlsx
+++ b/test_models/news.xlsx
@@ -18,22 +18,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Новое обновление Gos.Rab.0.1</t>
-  </si>
-  <si>
-    <t>Рейтинг</t>
-  </si>
-  <si>
-    <t>Реклама</t>
-  </si>
-  <si>
-    <t>Сервис теперь имеет личный профиль пользователя</t>
-  </si>
-  <si>
-    <t>У каждого пользователя имеется личный рейтинг</t>
-  </si>
-  <si>
-    <t>Здесь могла была быть ваша реклама</t>
+    <t>Яндекс лицей</t>
+  </si>
+  <si>
+    <t>Комампания яндекс в очередной раз проводит делает набор в ряды своих юных разработчиков.
+                        Бесплатное обучение проходит в течении 4 полугодии, в течении которых ученики получают хорошие
+                        знания языка програмирования Python.</t>
+  </si>
+  <si>
+    <t>../static/icon/Yandex_lyceum.jpg</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>GitHub — это крупнейший веб-сервис для хостинга IT-проектов и их совместной разработки.
+                    Веб-сервис основан на системе контроля версий Git и разработан на Ruby on Rails и Erlang компанией
+                    GitHub, Inc (ранее Logical Awesome). Сервис бесплатен для проектов с открытым исходным кодом и (с
+                    2019 года) небольших частных проектов, предоставляя им все возможности (включая SSL), а для крупных
+                    корпоративных проектов предлагаются различные платные тарифные планы.</t>
+  </si>
+  <si>
+    <t>../static/icon/git.png</t>
   </si>
 </sst>
 </file>
@@ -69,8 +75,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -372,44 +381,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/test_models/news.xlsx
+++ b/test_models/news.xlsx
@@ -9,8 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,20 +20,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">Новое обновление Gos.Rab. 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сервис теперь имеет личный профиль пользователя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Возможность создавать и редактировать профиль.\n2. Создание и отклик на вакансии. \n3. Просмотр новостей.\n4. Просмотр курсов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рейтинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">У каждого пользователя имеется личный рейтинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Это неправда)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реклама</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Здесь могла была быть ваша реклама</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Но ее здесь нет</t>
+  </si>
   <si>
     <t xml:space="preserve">Яндекс лицей</t>
   </si>
   <si>
+    <t xml:space="preserve">Хотите выучить python?Очень быстрый способ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Компания яндекс в очередной раз проводит набор в ряды своих юных разработчиков.
-                        Бесплатное обучение проходит в течении 4 полугодии, во время которых ученики получают хорошие
-                        знания языка програмирования Python.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../static/icon/Yandex_lyceum.jpg</t>
+Бесплатное обучение проходит в течении 4 полугодии, во время которых ученики получают хорошие
+знания языка програмирования Python.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static/icon/Yandex_lyceum.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не знаете где разместить свой проект? Самый легкий способ это</t>
   </si>
   <si>
     <t xml:space="preserve">GitHub — это крупнейший веб-сервис для хостинга IT-проектов и их совместной разработки.
@@ -45,7 +76,7 @@
                     корпоративных проектов предлагаются различные платные тарифные планы.</t>
   </si>
   <si>
-    <t xml:space="preserve">../static/icon/git.png</t>
+    <t xml:space="preserve">static/icon/git.png</t>
   </si>
 </sst>
 </file>
@@ -55,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -77,6 +108,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,12 +158,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -147,41 +188,83 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="212.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="315" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -191,56 +274,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/test_models/news.xlsx
+++ b/test_models/news.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Новое обновление Gos.Rab. 1.0</t>
   </si>
@@ -28,7 +28,13 @@
     <t xml:space="preserve">Сервис теперь имеет личный профиль пользователя</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Возможность создавать и редактировать профиль.\n2. Создание и отклик на вакансии. \n3. Просмотр новостей.\n4. Просмотр курсов</t>
+    <t xml:space="preserve">1. Возможность создавать и редактировать профиль. 
+2. Создание и отклик на вакансии. 
+3. Просмотр новостей.
+4. Просмотр курсов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">обновление, GosRab</t>
   </si>
   <si>
     <t xml:space="preserve">Рейтинг</t>
@@ -40,6 +46,9 @@
     <t xml:space="preserve">(Это неправда)</t>
   </si>
   <si>
+    <t xml:space="preserve">рейтинг</t>
+  </si>
+  <si>
     <t xml:space="preserve">Реклама</t>
   </si>
   <si>
@@ -49,15 +58,21 @@
     <t xml:space="preserve">Но ее здесь нет</t>
   </si>
   <si>
+    <t xml:space="preserve">реклама</t>
+  </si>
+  <si>
     <t xml:space="preserve">Яндекс лицей</t>
   </si>
   <si>
-    <t xml:space="preserve">Хотите выучить python?Очень быстрый способ</t>
+    <t xml:space="preserve">Хотите выучить python? Очень быстрый способ</t>
   </si>
   <si>
     <t xml:space="preserve">Компания яндекс в очередной раз проводит набор в ряды своих юных разработчиков.
 Бесплатное обучение проходит в течении 4 полугодии, во время которых ученики получают хорошие
 знания языка програмирования Python.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разработка, python, yandex, development</t>
   </si>
   <si>
     <t xml:space="preserve">static/icon/Yandex_lyceum.jpg</t>
@@ -76,7 +91,25 @@
                     корпоративных проектов предлагаются различные платные тарифные планы.</t>
   </si>
   <si>
+    <t xml:space="preserve">git, система контроля версий, github</t>
+  </si>
+  <si>
     <t xml:space="preserve">static/icon/git.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создали свой проект и не знаете где разместить? В этом вам поможет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heroku - Облачная PaaS-платформа, поддерживающая ряд языков программирования. С 2010 года является дочерней компанией Salesforce.com. Heroku, одна из первых облачных платформ, появилась в июне 2007 года и изначально поддерживала только язык программирования Ruby, но на данный момент список поддерживаемых языков также включает в себя Java, Node.js, Scala, Clojure, Python, Go, C# и PHP. На серверах Heroku используются операционные системы Debian или Ubuntu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хостинг, бесплатно, python, go, nodejs, heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static/icon/heroku.png</t>
   </si>
 </sst>
 </file>
@@ -86,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -108,12 +141,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,16 +185,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -191,7 +214,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -200,71 +223,103 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="212.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/test_models/news.xlsx
+++ b/test_models/news.xlsx
@@ -22,60 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t xml:space="preserve">Новое обновление Gos.Rab. 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сервис теперь имеет личный профиль пользователя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Возможность создавать и редактировать профиль. 
-2. Создание и отклик на вакансии. 
-3. Просмотр новостей.
-4. Просмотр курсов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">обновление, GosRab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рейтинг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">У каждого пользователя имеется личный рейтинг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Это неправда)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">рейтинг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Реклама</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Здесь могла была быть ваша реклама</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Но ее здесь нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">реклама</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Яндекс лицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хотите выучить python? Очень быстрый способ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Компания яндекс в очередной раз проводит набор в ряды своих юных разработчиков.
-Бесплатное обучение проходит в течении 4 полугодии, во время которых ученики получают хорошие
-знания языка програмирования Python.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">разработка, python, yandex, development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">static/icon/Yandex_lyceum.jpg</t>
+    <t xml:space="preserve">Heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создали свой проект и не знаете где разместить? В этом вам поможет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heroku - Облачная PaaS-платформа, поддерживающая ряд языков программирования. С 2010 года является дочерней компанией Salesforce.com. Heroku, одна из первых облачных платформ, появилась в июне 2007 года и изначально поддерживала только язык программирования Ruby, но на данный момент список поддерживаемых языков также включает в себя Java, Node.js, Scala, Clojure, Python, Go, C# и PHP. На серверах Heroku используются операционные системы Debian или Ubuntu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хостинг, бесплатно, python, go, nodejs, heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static/icon/heroku.png</t>
   </si>
   <si>
     <t xml:space="preserve">GitHub</t>
@@ -97,19 +56,60 @@
     <t xml:space="preserve">static/icon/git.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Heroku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создали свой проект и не знаете где разместить? В этом вам поможет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heroku - Облачная PaaS-платформа, поддерживающая ряд языков программирования. С 2010 года является дочерней компанией Salesforce.com. Heroku, одна из первых облачных платформ, появилась в июне 2007 года и изначально поддерживала только язык программирования Ruby, но на данный момент список поддерживаемых языков также включает в себя Java, Node.js, Scala, Clojure, Python, Go, C# и PHP. На серверах Heroku используются операционные системы Debian или Ubuntu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">хостинг, бесплатно, python, go, nodejs, heroku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">static/icon/heroku.png</t>
+    <t xml:space="preserve">Яндекс лицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хотите выучить python? Очень быстрый способ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компания яндекс в очередной раз проводит набор в ряды своих юных разработчиков.
+Бесплатное обучение проходит в течении 4 полугодии, во время которых ученики получают хорошие
+знания языка програмирования Python.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разработка, python, yandex, development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static/icon/Yandex_lyceum.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реклама</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Здесь могла была быть ваша реклама</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Но ее здесь нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">реклама</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рейтинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">У каждого пользователя имеется личный рейтинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Это неправда)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рейтинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новое обновление Gos.Rab. 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сервис теперь имеет личный профиль пользователя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Возможность создавать и редактировать профиль. 
+2. Создание и отклик на вакансии. 
+3. Просмотр новостей.
+4. Просмотр курсов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">обновление, GosRab</t>
   </si>
 </sst>
 </file>
@@ -211,10 +211,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -234,92 +234,96 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="0" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
